--- a/Task2/Results/GroupByPropertyID/2015/AA.xlsx
+++ b/Task2/Results/GroupByPropertyID/2015/AA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Property_id</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Stay_date</t>
   </si>
   <si>
-    <t>Channel</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -37,22 +34,7 @@
     <t>ADR</t>
   </si>
   <si>
-    <t>directChannelCount</t>
-  </si>
-  <si>
-    <t>travelAgentsChannelCount</t>
-  </si>
-  <si>
-    <t>corporatesChannelCount</t>
-  </si>
-  <si>
-    <t>OTAChannelCount</t>
-  </si>
-  <si>
     <t>AA</t>
-  </si>
-  <si>
-    <t>OTA</t>
   </si>
   <si>
     <t>Raksha Bandhan</t>
@@ -417,13 +399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,58 +424,28 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>18313</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>11002</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>42245</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
